--- a/Data/Processed/Angiosperms/missing_powo_ipni/Theaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Theaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 12(1): 284. 1886 [1 Apr 1886] </t>
+          <t>Fl. Bras. (Martius) 12(1): 284. 1886 [1 Apr 1886]</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hooker's Icon. Pl. 35, pt. 2: tab. 3450. 1943 </t>
+          <t>Hooker's Icon. Pl. 35, pt. 2: tab. 3450. 1943</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve">J. Arnold Arbor. 22: 485. 1941 </t>
+          <t>J. Arnold Arbor. 22: 485. 1941</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Linnaea 22(5): 549 (-550). 1849 [Sep 1849] </t>
+          <t>Linnaea 22(5): 549 (-550). 1849 [Sep 1849]</t>
         </is>
       </c>
       <c r="J75" t="b">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acta Bot. Venez. 43(1-2): 52. 2021 [2020 publ. after 12 Jul 2021] </t>
+          <t>Acta Bot. Venez. 43(1-2): 52. 2021 [2020 publ. after 12 Jul 2021]</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4982,7 +4982,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -5138,7 +5138,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
